--- a/Analysis/Excel/Analysis.xlsx
+++ b/Analysis/Excel/Analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>eta_0</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>Valore</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,6 +184,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +706,7 @@
     <col min="5" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>Sheet1!A1</f>
         <v>Costanti varie</v>
@@ -708,12 +714,12 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -721,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Sheet1!A5</f>
         <v>d</v>
@@ -735,7 +741,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Sheet1!A6</f>
         <v>g</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Sheet1!A7</f>
         <v>pressione</v>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Sheet1!A8</f>
         <v>densità aria</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Sheet1!A9</f>
         <v>densità olio</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Sheet1!A10</f>
         <v>cst corr vis</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Sheet1!A11</f>
         <v>e</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Sheet1!A12</f>
         <v>deltax</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -841,204 +847,196 @@
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>(1.8+(B18-15)*0.002765)*0.00001</f>
-        <v>1.7585250000000002E-5</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="e">
-        <f>E16/(1+$B$10/($B$7*B29))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>(1.8+(B19-15)*0.002765)*0.00001</f>
+        <v>1.7585250000000002E-5</v>
+      </c>
+      <c r="F17">
+        <f>(C19*0.002765)*0.00001</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f>E17/(1+$B$10/($B$7*B30))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="e">
-        <f>B16*B5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" t="e">
+        <f>B17*B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" t="e">
+        <f>SQRT(B5^2*C17^2+B17^2*C5^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>21</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="e">
-        <f>B12/B22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" t="e">
-        <f>(($B$10/(2*$B$7))^2+9*E16*C22/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="1" t="e">
-        <f>(D22+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1" t="e">
-        <f>-$B$12/(G22-B26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/$E$18)*(1+ABS(H22)/B28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="1" t="e">
-        <f>$B$12/(K22-G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(L22)/B28)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f>$B$12/(B23-B22)</f>
+        <f>B12/B23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" t="e">
-        <f>(($B$10/(2*$B$7))^2+9*E16*C23/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
+        <f>(($B$10/(2*$B$7))^2+9*E17*C23/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="1" t="e">
-        <f>(D23+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
+        <f>SQRT(((D23+$B$10/(2*$B$7))^(-1)*9*E17/(2*$B$6*($B$9-$B$8))*1/2*C29)^2+((D23+$B$10/(2*$B$7))^(-1)*9*C23/(2*$B$6*($B$9-$B$8))*1/2*F17)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="e">
-        <f t="shared" ref="H23:H26" si="0">-$B$12/G23</f>
+        <f>-$B$12/(G23-B27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/$E$18)*(1+ABS(H23)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/$E$19)*(1+ABS(H23)/B29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="1" t="e">
-        <f>$B$12/(K23-K22)</f>
+        <f>$B$12/(K23-G27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(L23)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(L23)/B29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="e">
-        <f t="shared" ref="C24:C26" si="1">$B$12/(B24-B23)</f>
+        <f>$B$12/(B24-B23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" t="e">
-        <f>(($B$10/(2*$B$7))^2+9*E16*C24/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
+        <f>(($B$10/(2*$B$7))^2+9*E17*C24/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="1" t="e">
-        <f>(D24+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
+        <f>SQRT(((D24+$B$10/(2*$B$7))^(-1)*9*E18/(2*$B$6*($B$9-$B$8))*1/2*C30)^2+((D24+$B$10/(2*$B$7))^(-1)*9*C24/(2*$B$6*($B$9-$B$8))*1/2*F17)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="1"/>
       <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H24:H27" si="0">-$B$12/G24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(H24)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/$E$19)*(1+ABS(H24)/B29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="1" t="e">
-        <f t="shared" ref="L24:L26" si="2">$B$12/(K24-K23)</f>
+        <f>$B$12/(K24-K23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(L24)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(L24)/B29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:C27" si="1">$B$12/(B25-B24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" t="e">
-        <f>(($B$10/(2*$B$7))^2+9*E16*C25/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
+        <f>(($B$10/(2*$B$7))^2+9*E17*C25/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="1" t="e">
-        <f>(D25+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
+        <f>SQRT(((D25+$B$10/(2*$B$7))^(-1)*9*E19/(2*$B$6*($B$9-$B$8))*1/2*C31)^2+((D25+$B$10/(2*$B$7))^(-1)*9*C25/(2*$B$6*($B$9-$B$8))*1/2*F17)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="1"/>
@@ -1047,32 +1045,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(H25)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(H25)/B29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L25:L27" si="2">$B$12/(K25-K24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(L25)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(L25)/B29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" t="e">
-        <f>(($B$10/(2*$B$7))^2+9*E16*C26/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
+        <f>(($B$10/(2*$B$7))^2+9*E17*C26/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="1" t="e">
-        <f>(D26+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
+        <f>SQRT(((D26+$B$10/(2*$B$7))^(-1)*9*E20/(2*$B$6*($B$9-$B$8))*1/2*C32)^2+((D26+$B$10/(2*$B$7))^(-1)*9*C26/(2*$B$6*($B$9-$B$8))*1/2*F17)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="1"/>
@@ -1081,7 +1079,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(H26)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(H26)/B29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="1" t="e">
@@ -1089,108 +1087,94 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="2" t="e">
-        <f>-(4*PI()/3)*B29^3*($B$9-$B$8)*($B$6/E18)*(1+ABS(L26)/B28)</f>
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(L26)/B29)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>(($B$10/(2*$B$7))^2+9*E17*C27/(2*$B$6*($B$9-$B$8)))^(1/2)-$B$10/(2*$B$7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="1" t="e">
+        <f>SQRT(((D27+$B$10/(2*$B$7))^(-1)*9*E21/(2*$B$6*($B$9-$B$8))*1/2*C33)^2+((D27+$B$10/(2*$B$7))^(-1)*9*C27/(2*$B$6*($B$9-$B$8))*1/2*F17)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="2" t="e">
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(H27)/B29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="2" t="e">
+        <f>-(4*PI()/3)*B30^3*($B$9-$B$8)*($B$6/E19)*(1+ABS(L27)/B29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="e">
-        <f>AVERAGE(C22:C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" s="1" t="e">
-        <f>_xlfn.STDEV.S(C22:C26)/SQRT(COUNT(C22:C26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1" t="e">
-        <f>AVERAGE(H22:H26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="1" t="e">
-        <f>_xlfn.STDEV.S(H22:H26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="2" t="e">
-        <f>H28/SQRT(5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="str">
-        <f>F28</f>
-        <v>Velocità</v>
-      </c>
-      <c r="K28" s="1" t="e">
-        <f>AVERAGE(L22:L26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="1" t="e">
-        <f>_xlfn.STDEV.S(L22:L26)/SQRT(COUNT(L22:L26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="2" t="e">
-        <f>L28/SQRT(5)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="e">
-        <f>AVERAGE(D22:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" t="e">
-        <f>_xlfn.STDEV.S(D22:D26)/SQRT(COUNT(D22:D26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="1" t="e">
-        <f>(B29+$B$10/(2*$B$7))^(-1)*9*E16/(2*$B$6*($B$9-$B$8))*1/2*C28</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="e">
+        <f>AVERAGE(C23:C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f>_xlfn.STDEV.S(C23:C27)/SQRT(COUNT(C23:C27))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="e">
-        <f>AVERAGE(I22:I26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" t="e">
-        <f>_xlfn.STDEV.S(I22:I26)</f>
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="e">
+        <f>AVERAGE(H23:H27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f>_xlfn.STDEV.S(H23:H27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="2" t="e">
@@ -1199,14 +1183,14 @@
       </c>
       <c r="J29" t="str">
         <f>F29</f>
-        <v>Carica</v>
-      </c>
-      <c r="K29" t="e">
-        <f>AVERAGE(M22:M26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" t="e">
-        <f>_xlfn.STDEV.S(M22:M26)/SQRT(COUNT(M22:M26))</f>
+        <v>Velocità</v>
+      </c>
+      <c r="K29" s="1" t="e">
+        <f>AVERAGE(L23:L27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="1" t="e">
+        <f>_xlfn.STDEV.S(L23:L27)/SQRT(COUNT(L23:L27))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -1214,106 +1198,121 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="e">
+        <f>AVERAGE(D23:D27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" t="e">
+        <f>_xlfn.STDEV.S(D23:D27)/SQRT(COUNT(D23:D27))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="1" t="e">
+        <f>(B30+$B$10/(2*$B$7))^(-1)*9*E17/(2*$B$6*($B$9-$B$8))*1/2*C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="e">
+        <f>AVERAGE(I23:I27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" t="e">
+        <f>_xlfn.STDEV.S(I23:I27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="2" t="e">
+        <f>H30/SQRT(5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" t="str">
+        <f>F30</f>
+        <v>Carica</v>
+      </c>
+      <c r="K30" t="e">
+        <f>AVERAGE(M23:M27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" t="e">
+        <f>_xlfn.STDEV.S(M23:M27)/SQRT(COUNT(M23:M27))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="2" t="e">
+        <f>L30/SQRT(5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <f t="array" ref="D32:H32">TRANSPOSE(A35:A39)</f>
+      <c r="D33">
+        <f t="array" ref="D33:H33">TRANSPOSE(A36:A40)</f>
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="D33" t="e">
-        <f t="array" ref="D33:H34">TRANSPOSE(B35:C39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D34" t="e">
+        <f t="array" ref="D34:H35">TRANSPOSE(B36:C40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="e">
-        <f>E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" t="e">
-        <f>D22</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D35" t="e">
-        <f>($C35-D$34)/SQRT($B35^2+D$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" t="e">
-        <f>($C35-E$34)/SQRT($B35^2+E$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" t="e">
-        <f>($C35-F$34)/SQRT($B35^2+F$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" t="e">
-        <f>($C35-G$34)/SQRT($B35^2+G$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" t="e">
-        <f>($C35-H$34)/SQRT($B35^2+H$33^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="e">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="e">
         <f>E23</f>
         <v>#DIV/0!</v>
       </c>
@@ -1322,29 +1321,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D36" t="e">
-        <f>($C36-D$34)/SQRT($B36^2+D$33^2)</f>
+        <f>($C36-D$35)/SQRT($B36^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" t="e">
-        <f>($C36-E$34)/SQRT($B36^2+E$33^2)</f>
+        <f>($C36-E$35)/SQRT($B36^2+E$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" t="e">
-        <f>($C36-F$34)/SQRT($B36^2+F$33^2)</f>
+        <f>($C36-F$35)/SQRT($B36^2+F$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" t="e">
-        <f>($C36-G$34)/SQRT($B36^2+G$33^2)</f>
+        <f>($C36-G$35)/SQRT($B36^2+G$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" t="e">
-        <f>($C36-H$34)/SQRT($B36^2+H$33^2)</f>
+        <f>($C36-H$35)/SQRT($B36^2+H$34^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="e">
         <f>E24</f>
@@ -1355,29 +1354,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D37" t="e">
-        <f>($C37-D$34)/SQRT($B37^2+D$33^2)</f>
+        <f>($C37-D$35)/SQRT($B37^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" t="e">
-        <f>($C37-E$34)/SQRT($B37^2+E$33^2)</f>
+        <f>($C37-E$35)/SQRT($B37^2+E$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" t="e">
-        <f>($C37-F$34)/SQRT($B37^2+F$33^2)</f>
+        <f>($C37-F$35)/SQRT($B37^2+F$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" t="e">
-        <f>($C37-G$34)/SQRT($B37^2+G$33^2)</f>
+        <f>($C37-G$35)/SQRT($B37^2+G$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" t="e">
-        <f>($C37-H$34)/SQRT($B37^2+H$33^2)</f>
+        <f>($C37-H$35)/SQRT($B37^2+H$34^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="e">
         <f>E25</f>
@@ -1388,29 +1387,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D38" t="e">
-        <f>($C38-D$34)/SQRT($B38^2+D$33^2)</f>
+        <f>($C38-D$35)/SQRT($B38^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" t="e">
-        <f>($C38-E$34)/SQRT($B38^2+E$33^2)</f>
+        <f>($C38-E$35)/SQRT($B38^2+E$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" t="e">
-        <f>($C38-F$34)/SQRT($B38^2+F$33^2)</f>
+        <f>($C38-F$35)/SQRT($B38^2+F$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" t="e">
-        <f>($C38-G$34)/SQRT($B38^2+G$33^2)</f>
+        <f>($C38-G$35)/SQRT($B38^2+G$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" t="e">
-        <f>($C38-H$34)/SQRT($B38^2+H$33^2)</f>
+        <f>($C38-H$35)/SQRT($B38^2+H$34^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="e">
         <f>E26</f>
@@ -1421,252 +1420,232 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D39" t="e">
-        <f>($C39-D$34)/SQRT($B39^2+D$33^2)</f>
+        <f>($C39-D$35)/SQRT($B39^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" t="e">
-        <f>($C39-E$34)/SQRT($B39^2+E$33^2)</f>
+        <f>($C39-E$35)/SQRT($B39^2+E$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" t="e">
-        <f>($C39-F$34)/SQRT($B39^2+F$33^2)</f>
+        <f>($C39-F$35)/SQRT($B39^2+F$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" t="e">
-        <f>($C39-G$34)/SQRT($B39^2+G$33^2)</f>
+        <f>($C39-G$35)/SQRT($B39^2+G$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" t="e">
-        <f>($C39-H$34)/SQRT($B39^2+H$33^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <f>($C39-H$35)/SQRT($B39^2+H$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="e">
+        <f>E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" t="e">
+        <f>D27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" t="e">
+        <f>($C40-D$35)/SQRT($B40^2+D$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" t="e">
+        <f>($C40-E$35)/SQRT($B40^2+E$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" t="e">
+        <f>($C40-F$35)/SQRT($B40^2+F$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" t="e">
+        <f>($C40-G$35)/SQRT($B40^2+G$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f>($C40-H$35)/SQRT($B40^2+H$34^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
-        <f t="array" ref="D41:M43">TRANSPOSE(A44:C53)</f>
+      <c r="D42">
+        <f t="array" ref="D42:M44">TRANSPOSE(A45:C54)</f>
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>4</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>5</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>7</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>8</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>9</v>
       </c>
-      <c r="M41">
+      <c r="M42">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="D42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="D43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="D43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="e">
-        <f>$H$29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C44" t="e">
-        <f>I22</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="D44" t="e">
-        <f>($C44-D$34)/SQRT($B44^2+D$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E44" t="e">
-        <f t="shared" ref="E44:M44" si="3">($C44-E$34)/SQRT($B44^2+E$33^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="e">
-        <f t="shared" ref="B45:B48" si="4">$H$29</f>
+        <f>$H$30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C45" t="e">
-        <f t="shared" ref="C45:D48" si="5">I23</f>
+        <f>I23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D45" t="e">
-        <f t="shared" ref="D45:M53" si="6">($C45-D$34)/SQRT($B45^2+D$33^2)</f>
+        <f>($C45-D$35)/SQRT($B45^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E45:M45" si="3">($C45-E$35)/SQRT($B45^2+E$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B46:B49" si="4">$H$30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C46" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C46:C49" si="5">I24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D46" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D46:M54" si="6">($C46-D$35)/SQRT($B46^2+D$34^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E46" t="e">
@@ -1708,7 +1687,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="e">
         <f t="shared" si="4"/>
@@ -1761,7 +1740,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="e">
         <f t="shared" si="4"/>
@@ -1814,14 +1793,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="e">
-        <f>$K$29</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" t="e">
-        <f>M22</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" t="e">
@@ -1867,14 +1846,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="e">
-        <f t="shared" ref="B50:B53" si="7">$K$29</f>
+        <f>$K$30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C50" t="e">
-        <f t="shared" ref="C50:C53" si="8">M23</f>
+        <f>M23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" t="e">
@@ -1920,14 +1899,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B51:B54" si="7">$K$30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C51" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C51:C54" si="8">M24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" t="e">
@@ -1973,7 +1952,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="e">
         <f t="shared" si="7"/>
@@ -2026,7 +2005,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="e">
         <f t="shared" si="7"/>
@@ -2073,6 +2052,59 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M53" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2082,7 +2114,7 @@
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A14:C15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44:M53">
+  <conditionalFormatting sqref="D45:M54">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1.96</formula>
     </cfRule>
